--- a/Images/Levels.xlsx
+++ b/Images/Levels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="3880" windowWidth="45480" windowHeight="22020"/>
+    <workbookView xWindow="3100" yWindow="13560" windowWidth="45480" windowHeight="22020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="17">
   <si>
     <t>,</t>
   </si>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM35"/>
+  <dimension ref="A1:CS35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+      <selection activeCell="BS2" sqref="BS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,9 +452,12 @@
     <col min="35" max="47" width="2.6640625" customWidth="1"/>
     <col min="48" max="56" width="2.6640625" style="2" customWidth="1"/>
     <col min="57" max="65" width="2.6640625" customWidth="1"/>
+    <col min="67" max="79" width="2.6640625" customWidth="1"/>
+    <col min="80" max="88" width="2.6640625" style="2" customWidth="1"/>
+    <col min="89" max="97" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3">
         <v>1</v>
@@ -631,8 +634,96 @@
       <c r="BK1" s="3"/>
       <c r="BL1" s="4"/>
       <c r="BM1" s="4"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP1" s="3">
+        <v>2</v>
+      </c>
+      <c r="BQ1" s="3">
+        <v>3</v>
+      </c>
+      <c r="BR1" s="3">
+        <v>4</v>
+      </c>
+      <c r="BS1" s="3">
+        <v>5</v>
+      </c>
+      <c r="BT1" s="3">
+        <v>6</v>
+      </c>
+      <c r="BU1" s="3">
+        <v>7</v>
+      </c>
+      <c r="BV1" s="3">
+        <v>8</v>
+      </c>
+      <c r="BW1" s="3">
+        <v>9</v>
+      </c>
+      <c r="BX1" s="3">
+        <v>10</v>
+      </c>
+      <c r="BY1" s="3">
+        <v>11</v>
+      </c>
+      <c r="BZ1" s="3">
+        <v>12</v>
+      </c>
+      <c r="CA1" s="3">
+        <v>13</v>
+      </c>
+      <c r="CB1" s="3">
+        <v>14</v>
+      </c>
+      <c r="CC1" s="3">
+        <v>15</v>
+      </c>
+      <c r="CD1" s="3">
+        <v>16</v>
+      </c>
+      <c r="CE1" s="3">
+        <v>17</v>
+      </c>
+      <c r="CF1" s="3">
+        <v>18</v>
+      </c>
+      <c r="CG1" s="3">
+        <v>19</v>
+      </c>
+      <c r="CH1" s="3">
+        <v>20</v>
+      </c>
+      <c r="CI1" s="3">
+        <v>21</v>
+      </c>
+      <c r="CJ1" s="3">
+        <v>22</v>
+      </c>
+      <c r="CK1" s="3">
+        <v>23</v>
+      </c>
+      <c r="CL1" s="3">
+        <v>24</v>
+      </c>
+      <c r="CM1" s="3">
+        <v>25</v>
+      </c>
+      <c r="CN1" s="3">
+        <v>26</v>
+      </c>
+      <c r="CO1" s="3">
+        <v>27</v>
+      </c>
+      <c r="CP1" s="3">
+        <v>28</v>
+      </c>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -648,15 +739,32 @@
       <c r="AX2"/>
       <c r="AY2"/>
       <c r="AZ2"/>
-      <c r="BA2">
-        <v>5</v>
-      </c>
+      <c r="BA2"/>
       <c r="BB2"/>
       <c r="BC2"/>
       <c r="BD2"/>
       <c r="BK2" s="3"/>
+      <c r="BN2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>6</v>
+      </c>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CP2">
+        <v>3</v>
+      </c>
+      <c r="CQ2" s="3"/>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -670,23 +778,75 @@
       <c r="AH3" s="3">
         <v>2</v>
       </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>3</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
       <c r="AM3">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
       </c>
       <c r="AV3"/>
       <c r="AW3"/>
       <c r="AX3"/>
       <c r="AY3"/>
       <c r="AZ3"/>
-      <c r="BA3">
-        <v>5</v>
-      </c>
+      <c r="BA3"/>
       <c r="BB3"/>
       <c r="BC3"/>
       <c r="BD3"/>
       <c r="BK3" s="3"/>
+      <c r="BN3" s="3">
+        <v>2</v>
+      </c>
+      <c r="BO3">
+        <v>3</v>
+      </c>
+      <c r="BP3">
+        <v>2</v>
+      </c>
+      <c r="BQ3">
+        <v>2</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>2</v>
+      </c>
+      <c r="BT3">
+        <v>2</v>
+      </c>
+      <c r="BU3">
+        <v>3</v>
+      </c>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
+      <c r="CF3"/>
+      <c r="CG3">
+        <v>6</v>
+      </c>
+      <c r="CH3"/>
+      <c r="CI3"/>
+      <c r="CJ3"/>
+      <c r="CP3">
+        <v>3</v>
+      </c>
+      <c r="CQ3" s="3"/>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -745,60 +905,73 @@
       <c r="AI4">
         <v>1</v>
       </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN4">
         <v>1</v>
       </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
-      <c r="AP4">
-        <v>3</v>
-      </c>
-      <c r="AQ4">
-        <v>1</v>
-      </c>
-      <c r="AR4">
-        <v>1</v>
-      </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
-        <v>1</v>
-      </c>
-      <c r="AV4">
-        <v>1</v>
-      </c>
-      <c r="AW4">
-        <v>1</v>
-      </c>
+      <c r="AV4"/>
+      <c r="AW4"/>
       <c r="AX4"/>
       <c r="AY4"/>
       <c r="AZ4"/>
-      <c r="BA4">
-        <v>5</v>
-      </c>
+      <c r="BA4"/>
       <c r="BB4"/>
       <c r="BC4"/>
       <c r="BD4"/>
       <c r="BK4" s="3"/>
+      <c r="BN4" s="3">
+        <v>3</v>
+      </c>
+      <c r="BO4">
+        <v>3</v>
+      </c>
+      <c r="BU4">
+        <v>3</v>
+      </c>
+      <c r="BZ4">
+        <v>3</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
+        <v>1</v>
+      </c>
+      <c r="CD4">
+        <v>1</v>
+      </c>
+      <c r="CE4">
+        <v>1</v>
+      </c>
+      <c r="CF4">
+        <v>1</v>
+      </c>
+      <c r="CG4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>1</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
+      <c r="CJ4">
+        <v>3</v>
+      </c>
+      <c r="CL4">
+        <v>6</v>
+      </c>
+      <c r="CP4">
+        <v>3</v>
+      </c>
+      <c r="CQ4" s="3"/>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -845,51 +1018,75 @@
       <c r="AH5" s="3">
         <v>4</v>
       </c>
-      <c r="AP5">
-        <v>3</v>
-      </c>
-      <c r="AQ5">
-        <v>4</v>
-      </c>
-      <c r="AR5">
-        <v>4</v>
-      </c>
-      <c r="AS5">
-        <v>4</v>
-      </c>
-      <c r="AT5">
-        <v>4</v>
-      </c>
-      <c r="AU5">
-        <v>4</v>
-      </c>
-      <c r="AV5">
-        <v>4</v>
-      </c>
-      <c r="AW5">
-        <v>4</v>
-      </c>
-      <c r="AX5">
-        <v>4</v>
-      </c>
-      <c r="AY5">
-        <v>4</v>
-      </c>
-      <c r="AZ5">
-        <v>4</v>
-      </c>
-      <c r="BA5">
-        <v>5</v>
-      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>3</v>
+      </c>
+      <c r="AM5">
+        <v>6</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
       <c r="BB5"/>
       <c r="BC5"/>
       <c r="BD5"/>
-      <c r="BF5">
+      <c r="BK5" s="3"/>
+      <c r="BN5" s="3">
+        <v>4</v>
+      </c>
+      <c r="BO5">
+        <v>3</v>
+      </c>
+      <c r="BQ5">
         <v>6</v>
       </c>
-      <c r="BK5" s="3"/>
+      <c r="BU5">
+        <v>3</v>
+      </c>
+      <c r="BZ5">
+        <v>3</v>
+      </c>
+      <c r="CB5"/>
+      <c r="CC5"/>
+      <c r="CD5"/>
+      <c r="CE5"/>
+      <c r="CF5"/>
+      <c r="CG5"/>
+      <c r="CH5"/>
+      <c r="CI5"/>
+      <c r="CJ5">
+        <v>3</v>
+      </c>
+      <c r="CK5">
+        <v>1</v>
+      </c>
+      <c r="CL5">
+        <v>1</v>
+      </c>
+      <c r="CM5">
+        <v>1</v>
+      </c>
+      <c r="CN5">
+        <v>1</v>
+      </c>
+      <c r="CO5">
+        <v>5</v>
+      </c>
+      <c r="CP5">
+        <v>3</v>
+      </c>
+      <c r="CQ5" s="3"/>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -939,54 +1136,75 @@
       <c r="AH6" s="3">
         <v>5</v>
       </c>
-      <c r="AP6">
-        <v>3</v>
-      </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
-        <v>3</v>
-      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AV6"/>
+      <c r="AW6"/>
       <c r="AX6"/>
       <c r="AY6"/>
       <c r="AZ6"/>
-      <c r="BA6">
-        <v>1</v>
-      </c>
-      <c r="BB6">
-        <v>1</v>
-      </c>
-      <c r="BC6">
-        <v>1</v>
-      </c>
-      <c r="BD6">
-        <v>1</v>
-      </c>
-      <c r="BE6">
-        <v>1</v>
-      </c>
-      <c r="BF6">
-        <v>1</v>
-      </c>
-      <c r="BG6">
-        <v>1</v>
-      </c>
-      <c r="BH6">
-        <v>3</v>
-      </c>
-      <c r="BI6">
-        <v>1</v>
-      </c>
-      <c r="BJ6">
-        <v>1</v>
-      </c>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
       <c r="BK6" s="3"/>
+      <c r="BN6" s="3">
+        <v>5</v>
+      </c>
+      <c r="BO6">
+        <v>3</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>2</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>2</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <v>3</v>
+      </c>
+      <c r="BZ6">
+        <v>3</v>
+      </c>
+      <c r="CB6"/>
+      <c r="CC6"/>
+      <c r="CD6"/>
+      <c r="CE6"/>
+      <c r="CF6"/>
+      <c r="CG6"/>
+      <c r="CH6"/>
+      <c r="CI6"/>
+      <c r="CJ6">
+        <v>3</v>
+      </c>
+      <c r="CQ6" s="3"/>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1009,18 +1227,8 @@
       <c r="AH7" s="3">
         <v>6</v>
       </c>
-      <c r="AP7">
-        <v>3</v>
-      </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
-      <c r="AV7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
-        <v>3</v>
-      </c>
+      <c r="AV7"/>
+      <c r="AW7"/>
       <c r="AX7"/>
       <c r="AY7"/>
       <c r="AZ7"/>
@@ -1028,12 +1236,58 @@
       <c r="BB7"/>
       <c r="BC7"/>
       <c r="BD7"/>
-      <c r="BH7">
-        <v>3</v>
-      </c>
       <c r="BK7" s="3"/>
+      <c r="BN7" s="3">
+        <v>6</v>
+      </c>
+      <c r="BO7">
+        <v>3</v>
+      </c>
+      <c r="BU7">
+        <v>3</v>
+      </c>
+      <c r="BV7">
+        <v>4</v>
+      </c>
+      <c r="BW7">
+        <v>4</v>
+      </c>
+      <c r="BX7">
+        <v>4</v>
+      </c>
+      <c r="BY7">
+        <v>4</v>
+      </c>
+      <c r="BZ7">
+        <v>3</v>
+      </c>
+      <c r="CA7">
+        <v>4</v>
+      </c>
+      <c r="CB7">
+        <v>4</v>
+      </c>
+      <c r="CC7">
+        <v>4</v>
+      </c>
+      <c r="CD7">
+        <v>4</v>
+      </c>
+      <c r="CE7">
+        <v>4</v>
+      </c>
+      <c r="CF7">
+        <v>4</v>
+      </c>
+      <c r="CG7"/>
+      <c r="CH7"/>
+      <c r="CI7"/>
+      <c r="CJ7">
+        <v>3</v>
+      </c>
+      <c r="CQ7" s="3"/>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1059,18 +1313,8 @@
       <c r="AH8" s="3">
         <v>7</v>
       </c>
-      <c r="AP8">
-        <v>3</v>
-      </c>
-      <c r="AU8">
-        <v>1</v>
-      </c>
-      <c r="AV8">
-        <v>1</v>
-      </c>
-      <c r="AW8">
-        <v>3</v>
-      </c>
+      <c r="AV8"/>
+      <c r="AW8"/>
       <c r="AX8"/>
       <c r="AY8"/>
       <c r="AZ8"/>
@@ -1078,15 +1322,59 @@
       <c r="BB8"/>
       <c r="BC8"/>
       <c r="BD8"/>
-      <c r="BE8">
-        <v>6</v>
-      </c>
-      <c r="BH8">
-        <v>3</v>
-      </c>
       <c r="BK8" s="3"/>
+      <c r="BN8" s="3">
+        <v>7</v>
+      </c>
+      <c r="BO8">
+        <v>3</v>
+      </c>
+      <c r="BU8">
+        <v>3</v>
+      </c>
+      <c r="BZ8">
+        <v>3</v>
+      </c>
+      <c r="CB8"/>
+      <c r="CC8"/>
+      <c r="CD8"/>
+      <c r="CE8"/>
+      <c r="CF8">
+        <v>3</v>
+      </c>
+      <c r="CG8">
+        <v>1</v>
+      </c>
+      <c r="CH8">
+        <v>1</v>
+      </c>
+      <c r="CI8">
+        <v>1</v>
+      </c>
+      <c r="CJ8">
+        <v>2</v>
+      </c>
+      <c r="CK8">
+        <v>2</v>
+      </c>
+      <c r="CL8">
+        <v>2</v>
+      </c>
+      <c r="CM8">
+        <v>2</v>
+      </c>
+      <c r="CN8">
+        <v>2</v>
+      </c>
+      <c r="CO8">
+        <v>2</v>
+      </c>
+      <c r="CP8">
+        <v>3</v>
+      </c>
+      <c r="CQ8" s="3"/>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1166,81 +1454,47 @@
       <c r="AH9" s="3">
         <v>8</v>
       </c>
-      <c r="AI9">
-        <v>1</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-      <c r="AK9">
-        <v>3</v>
-      </c>
-      <c r="AL9">
-        <v>1</v>
-      </c>
-      <c r="AM9">
-        <v>1</v>
-      </c>
-      <c r="AN9">
-        <v>1</v>
-      </c>
-      <c r="AO9">
-        <v>1</v>
-      </c>
-      <c r="AP9">
-        <v>1</v>
-      </c>
-      <c r="AU9">
-        <v>1</v>
-      </c>
-      <c r="AV9">
-        <v>1</v>
-      </c>
-      <c r="AW9">
-        <v>1</v>
-      </c>
-      <c r="AX9">
-        <v>1</v>
-      </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="AZ9">
-        <v>1</v>
-      </c>
-      <c r="BA9">
-        <v>1</v>
-      </c>
-      <c r="BB9">
-        <v>1</v>
-      </c>
-      <c r="BC9">
-        <v>3</v>
-      </c>
-      <c r="BD9">
-        <v>1</v>
-      </c>
-      <c r="BE9">
-        <v>1</v>
-      </c>
-      <c r="BF9">
-        <v>1</v>
-      </c>
-      <c r="BG9">
-        <v>1</v>
-      </c>
-      <c r="BH9">
-        <v>1</v>
-      </c>
-      <c r="BI9">
-        <v>1</v>
-      </c>
-      <c r="BJ9">
-        <v>1</v>
-      </c>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
       <c r="BK9" s="3"/>
+      <c r="BN9" s="3">
+        <v>8</v>
+      </c>
+      <c r="BO9">
+        <v>3</v>
+      </c>
+      <c r="BU9">
+        <v>3</v>
+      </c>
+      <c r="BZ9">
+        <v>3</v>
+      </c>
+      <c r="CB9"/>
+      <c r="CC9">
+        <v>6</v>
+      </c>
+      <c r="CD9"/>
+      <c r="CE9"/>
+      <c r="CF9">
+        <v>3</v>
+      </c>
+      <c r="CG9"/>
+      <c r="CH9"/>
+      <c r="CI9"/>
+      <c r="CJ9"/>
+      <c r="CP9">
+        <v>3</v>
+      </c>
+      <c r="CQ9" s="3"/>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1253,9 +1507,6 @@
       <c r="AD10" s="3"/>
       <c r="AH10" s="3">
         <v>9</v>
-      </c>
-      <c r="AK10">
-        <v>3</v>
       </c>
       <c r="AV10"/>
       <c r="AW10"/>
@@ -1264,13 +1515,52 @@
       <c r="AZ10"/>
       <c r="BA10"/>
       <c r="BB10"/>
-      <c r="BC10">
-        <v>3</v>
-      </c>
+      <c r="BC10"/>
       <c r="BD10"/>
       <c r="BK10" s="3"/>
+      <c r="BN10" s="3">
+        <v>9</v>
+      </c>
+      <c r="BO10">
+        <v>3</v>
+      </c>
+      <c r="BU10">
+        <v>3</v>
+      </c>
+      <c r="BW10">
+        <v>6</v>
+      </c>
+      <c r="BZ10">
+        <v>3</v>
+      </c>
+      <c r="CA10">
+        <v>1</v>
+      </c>
+      <c r="CB10">
+        <v>1</v>
+      </c>
+      <c r="CC10">
+        <v>1</v>
+      </c>
+      <c r="CD10">
+        <v>1</v>
+      </c>
+      <c r="CE10">
+        <v>1</v>
+      </c>
+      <c r="CF10">
+        <v>3</v>
+      </c>
+      <c r="CG10"/>
+      <c r="CH10"/>
+      <c r="CI10"/>
+      <c r="CJ10"/>
+      <c r="CP10">
+        <v>3</v>
+      </c>
+      <c r="CQ10" s="3"/>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1283,9 +1573,6 @@
       <c r="AD11" s="3"/>
       <c r="AH11" s="3">
         <v>10</v>
-      </c>
-      <c r="AK11">
-        <v>3</v>
       </c>
       <c r="AV11"/>
       <c r="AW11"/>
@@ -1294,13 +1581,80 @@
       <c r="AZ11"/>
       <c r="BA11"/>
       <c r="BB11"/>
-      <c r="BC11">
-        <v>3</v>
-      </c>
+      <c r="BC11"/>
       <c r="BD11"/>
       <c r="BK11" s="3"/>
+      <c r="BN11" s="3">
+        <v>10</v>
+      </c>
+      <c r="BO11">
+        <v>2</v>
+      </c>
+      <c r="BP11">
+        <v>1</v>
+      </c>
+      <c r="BQ11">
+        <v>1</v>
+      </c>
+      <c r="BR11">
+        <v>1</v>
+      </c>
+      <c r="BS11">
+        <v>2</v>
+      </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
+        <v>1</v>
+      </c>
+      <c r="BV11">
+        <v>2</v>
+      </c>
+      <c r="BW11">
+        <v>1</v>
+      </c>
+      <c r="BX11">
+        <v>1</v>
+      </c>
+      <c r="BY11">
+        <v>2</v>
+      </c>
+      <c r="BZ11">
+        <v>3</v>
+      </c>
+      <c r="CB11"/>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
+      <c r="CF11"/>
+      <c r="CG11"/>
+      <c r="CH11"/>
+      <c r="CI11"/>
+      <c r="CJ11">
+        <v>3</v>
+      </c>
+      <c r="CK11">
+        <v>1</v>
+      </c>
+      <c r="CL11">
+        <v>1</v>
+      </c>
+      <c r="CM11">
+        <v>1</v>
+      </c>
+      <c r="CN11">
+        <v>3</v>
+      </c>
+      <c r="CO11">
+        <v>1</v>
+      </c>
+      <c r="CP11">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="3"/>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1371,73 +1725,54 @@
       <c r="AH12" s="3">
         <v>11</v>
       </c>
-      <c r="AI12">
-        <v>1</v>
-      </c>
-      <c r="AJ12">
-        <v>1</v>
-      </c>
-      <c r="AK12">
-        <v>1</v>
-      </c>
-      <c r="AL12">
-        <v>1</v>
-      </c>
-      <c r="AM12">
-        <v>1</v>
-      </c>
-      <c r="AN12">
-        <v>1</v>
-      </c>
-      <c r="AO12">
-        <v>1</v>
-      </c>
-      <c r="AP12">
-        <v>1</v>
-      </c>
-      <c r="AQ12">
-        <v>1</v>
-      </c>
-      <c r="AR12">
-        <v>3</v>
-      </c>
-      <c r="AS12">
-        <v>1</v>
-      </c>
-      <c r="AT12">
-        <v>1</v>
-      </c>
-      <c r="AU12">
-        <v>1</v>
-      </c>
-      <c r="AV12">
-        <v>1</v>
-      </c>
-      <c r="AW12">
-        <v>1</v>
-      </c>
-      <c r="AX12">
-        <v>1</v>
-      </c>
-      <c r="AY12">
-        <v>1</v>
-      </c>
-      <c r="AZ12">
-        <v>1</v>
-      </c>
-      <c r="BA12">
-        <v>1</v>
-      </c>
-      <c r="BB12">
-        <v>1</v>
-      </c>
-      <c r="BC12">
-        <v>3</v>
-      </c>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
       <c r="BD12"/>
       <c r="BK12" s="3"/>
+      <c r="BN12" s="3">
+        <v>11</v>
+      </c>
+      <c r="BO12">
+        <v>2</v>
+      </c>
+      <c r="BP12">
+        <v>1</v>
+      </c>
+      <c r="BQ12">
+        <v>1</v>
+      </c>
+      <c r="BR12">
+        <v>1</v>
+      </c>
+      <c r="BS12">
+        <v>2</v>
+      </c>
+      <c r="BZ12">
+        <v>3</v>
+      </c>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
+      <c r="CF12"/>
+      <c r="CG12"/>
+      <c r="CH12"/>
+      <c r="CI12"/>
+      <c r="CJ12">
+        <v>3</v>
+      </c>
+      <c r="CN12">
+        <v>3</v>
+      </c>
+      <c r="CQ12" s="3"/>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1450,9 +1785,6 @@
       <c r="AD13" s="3"/>
       <c r="AH13" s="3">
         <v>12</v>
-      </c>
-      <c r="AR13">
-        <v>3</v>
       </c>
       <c r="AV13"/>
       <c r="AW13"/>
@@ -1461,13 +1793,56 @@
       <c r="AZ13"/>
       <c r="BA13"/>
       <c r="BB13"/>
-      <c r="BC13">
-        <v>3</v>
-      </c>
+      <c r="BC13"/>
       <c r="BD13"/>
       <c r="BK13" s="3"/>
+      <c r="BN13" s="3">
+        <v>12</v>
+      </c>
+      <c r="BO13">
+        <v>2</v>
+      </c>
+      <c r="BP13">
+        <v>6</v>
+      </c>
+      <c r="BS13">
+        <v>2</v>
+      </c>
+      <c r="BZ13">
+        <v>3</v>
+      </c>
+      <c r="CB13"/>
+      <c r="CC13"/>
+      <c r="CD13">
+        <v>4</v>
+      </c>
+      <c r="CE13">
+        <v>4</v>
+      </c>
+      <c r="CF13">
+        <v>4</v>
+      </c>
+      <c r="CG13">
+        <v>4</v>
+      </c>
+      <c r="CH13">
+        <v>4</v>
+      </c>
+      <c r="CI13">
+        <v>4</v>
+      </c>
+      <c r="CJ13">
+        <v>4</v>
+      </c>
+      <c r="CN13">
+        <v>3</v>
+      </c>
+      <c r="CP13">
+        <v>6</v>
+      </c>
+      <c r="CQ13" s="3"/>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1517,52 +1892,90 @@
       <c r="AH14" s="3">
         <v>13</v>
       </c>
-      <c r="AP14">
-        <v>6</v>
-      </c>
-      <c r="AR14">
-        <v>3</v>
-      </c>
-      <c r="AS14">
-        <v>4</v>
-      </c>
-      <c r="AT14">
-        <v>4</v>
-      </c>
-      <c r="AU14">
-        <v>4</v>
-      </c>
-      <c r="AV14">
-        <v>4</v>
-      </c>
-      <c r="AW14">
-        <v>4</v>
-      </c>
-      <c r="AX14">
-        <v>4</v>
-      </c>
-      <c r="AY14">
-        <v>4</v>
-      </c>
-      <c r="AZ14">
-        <v>4</v>
-      </c>
-      <c r="BA14">
-        <v>4</v>
-      </c>
-      <c r="BB14">
-        <v>4</v>
-      </c>
-      <c r="BC14">
-        <v>3</v>
-      </c>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
       <c r="BD14"/>
-      <c r="BG14">
-        <v>6</v>
-      </c>
       <c r="BK14" s="3"/>
+      <c r="BN14" s="3">
+        <v>13</v>
+      </c>
+      <c r="BO14">
+        <v>1</v>
+      </c>
+      <c r="BP14">
+        <v>1</v>
+      </c>
+      <c r="BQ14">
+        <v>1</v>
+      </c>
+      <c r="BR14">
+        <v>1</v>
+      </c>
+      <c r="BS14">
+        <v>1</v>
+      </c>
+      <c r="BT14">
+        <v>1</v>
+      </c>
+      <c r="BU14">
+        <v>1</v>
+      </c>
+      <c r="BV14">
+        <v>1</v>
+      </c>
+      <c r="BW14">
+        <v>3</v>
+      </c>
+      <c r="BX14">
+        <v>1</v>
+      </c>
+      <c r="BY14">
+        <v>1</v>
+      </c>
+      <c r="BZ14">
+        <v>1</v>
+      </c>
+      <c r="CA14">
+        <v>2</v>
+      </c>
+      <c r="CB14">
+        <v>2</v>
+      </c>
+      <c r="CC14">
+        <v>2</v>
+      </c>
+      <c r="CD14">
+        <v>2</v>
+      </c>
+      <c r="CE14"/>
+      <c r="CF14"/>
+      <c r="CG14"/>
+      <c r="CH14"/>
+      <c r="CI14"/>
+      <c r="CJ14">
+        <v>3</v>
+      </c>
+      <c r="CM14">
+        <v>1</v>
+      </c>
+      <c r="CN14">
+        <v>1</v>
+      </c>
+      <c r="CO14">
+        <v>1</v>
+      </c>
+      <c r="CP14">
+        <v>1</v>
+      </c>
+      <c r="CQ14" s="3"/>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1614,27 +2027,6 @@
       <c r="AD15" s="3"/>
       <c r="AH15" s="3">
         <v>14</v>
-      </c>
-      <c r="AM15">
-        <v>3</v>
-      </c>
-      <c r="AN15">
-        <v>1</v>
-      </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
-      <c r="AP15">
-        <v>1</v>
-      </c>
-      <c r="AQ15">
-        <v>1</v>
-      </c>
-      <c r="AR15">
-        <v>1</v>
-      </c>
-      <c r="AS15">
-        <v>1</v>
       </c>
       <c r="AV15"/>
       <c r="AW15"/>
@@ -1643,33 +2035,29 @@
       <c r="AZ15"/>
       <c r="BA15"/>
       <c r="BB15"/>
-      <c r="BC15">
-        <v>1</v>
-      </c>
-      <c r="BD15">
-        <v>1</v>
-      </c>
-      <c r="BE15">
-        <v>1</v>
-      </c>
-      <c r="BF15">
-        <v>1</v>
-      </c>
-      <c r="BG15">
-        <v>1</v>
-      </c>
-      <c r="BH15">
-        <v>1</v>
-      </c>
-      <c r="BI15">
-        <v>1</v>
-      </c>
-      <c r="BJ15">
-        <v>3</v>
-      </c>
+      <c r="BC15"/>
+      <c r="BD15"/>
       <c r="BK15" s="3"/>
+      <c r="BN15" s="3">
+        <v>14</v>
+      </c>
+      <c r="BW15">
+        <v>3</v>
+      </c>
+      <c r="CB15"/>
+      <c r="CC15"/>
+      <c r="CD15"/>
+      <c r="CE15"/>
+      <c r="CF15"/>
+      <c r="CG15"/>
+      <c r="CH15"/>
+      <c r="CI15"/>
+      <c r="CJ15">
+        <v>3</v>
+      </c>
+      <c r="CQ15" s="3"/>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1685,27 +2073,37 @@
       <c r="AD16" s="3"/>
       <c r="AH16" s="3">
         <v>15</v>
-      </c>
-      <c r="AM16">
-        <v>3</v>
       </c>
       <c r="AV16"/>
       <c r="AW16"/>
       <c r="AX16"/>
       <c r="AY16"/>
-      <c r="AZ16">
-        <v>6</v>
-      </c>
+      <c r="AZ16"/>
       <c r="BA16"/>
       <c r="BB16"/>
       <c r="BC16"/>
       <c r="BD16"/>
-      <c r="BJ16">
-        <v>3</v>
-      </c>
       <c r="BK16" s="3"/>
+      <c r="BN16" s="3">
+        <v>15</v>
+      </c>
+      <c r="BW16">
+        <v>3</v>
+      </c>
+      <c r="CB16"/>
+      <c r="CC16"/>
+      <c r="CD16"/>
+      <c r="CE16"/>
+      <c r="CF16"/>
+      <c r="CG16"/>
+      <c r="CH16"/>
+      <c r="CI16"/>
+      <c r="CJ16">
+        <v>3</v>
+      </c>
+      <c r="CQ16" s="3"/>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1797,93 +2195,106 @@
       <c r="AH17" s="3">
         <v>16</v>
       </c>
-      <c r="AI17">
-        <v>1</v>
-      </c>
-      <c r="AJ17">
-        <v>1</v>
-      </c>
-      <c r="AK17">
-        <v>1</v>
-      </c>
-      <c r="AL17">
-        <v>1</v>
-      </c>
-      <c r="AM17">
-        <v>1</v>
-      </c>
-      <c r="AN17">
-        <v>1</v>
-      </c>
-      <c r="AO17">
-        <v>1</v>
-      </c>
-      <c r="AP17">
-        <v>1</v>
-      </c>
-      <c r="AQ17">
-        <v>1</v>
-      </c>
-      <c r="AR17">
-        <v>1</v>
-      </c>
-      <c r="AS17">
-        <v>1</v>
-      </c>
-      <c r="AT17">
-        <v>1</v>
-      </c>
-      <c r="AU17">
-        <v>1</v>
-      </c>
-      <c r="AV17">
-        <v>1</v>
-      </c>
-      <c r="AW17">
-        <v>1</v>
-      </c>
-      <c r="AX17">
-        <v>1</v>
-      </c>
-      <c r="AY17">
-        <v>1</v>
-      </c>
-      <c r="AZ17">
-        <v>1</v>
-      </c>
-      <c r="BA17">
-        <v>1</v>
-      </c>
-      <c r="BB17">
-        <v>1</v>
-      </c>
-      <c r="BC17">
-        <v>1</v>
-      </c>
-      <c r="BD17">
-        <v>1</v>
-      </c>
-      <c r="BE17">
-        <v>1</v>
-      </c>
-      <c r="BF17">
-        <v>1</v>
-      </c>
-      <c r="BG17">
-        <v>1</v>
-      </c>
-      <c r="BH17">
-        <v>1</v>
-      </c>
-      <c r="BI17">
-        <v>1</v>
-      </c>
-      <c r="BJ17">
-        <v>1</v>
-      </c>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
       <c r="BK17" s="3"/>
+      <c r="BN17" s="3">
+        <v>16</v>
+      </c>
+      <c r="BO17">
+        <v>1</v>
+      </c>
+      <c r="BP17">
+        <v>1</v>
+      </c>
+      <c r="BQ17">
+        <v>1</v>
+      </c>
+      <c r="BR17">
+        <v>1</v>
+      </c>
+      <c r="BS17">
+        <v>1</v>
+      </c>
+      <c r="BT17">
+        <v>1</v>
+      </c>
+      <c r="BU17">
+        <v>1</v>
+      </c>
+      <c r="BV17">
+        <v>1</v>
+      </c>
+      <c r="BW17">
+        <v>1</v>
+      </c>
+      <c r="BX17">
+        <v>1</v>
+      </c>
+      <c r="BY17">
+        <v>1</v>
+      </c>
+      <c r="BZ17">
+        <v>1</v>
+      </c>
+      <c r="CA17">
+        <v>1</v>
+      </c>
+      <c r="CB17">
+        <v>1</v>
+      </c>
+      <c r="CC17">
+        <v>1</v>
+      </c>
+      <c r="CD17">
+        <v>1</v>
+      </c>
+      <c r="CE17">
+        <v>1</v>
+      </c>
+      <c r="CF17">
+        <v>1</v>
+      </c>
+      <c r="CG17">
+        <v>1</v>
+      </c>
+      <c r="CH17">
+        <v>1</v>
+      </c>
+      <c r="CI17">
+        <v>1</v>
+      </c>
+      <c r="CJ17">
+        <v>1</v>
+      </c>
+      <c r="CK17">
+        <v>1</v>
+      </c>
+      <c r="CL17">
+        <v>1</v>
+      </c>
+      <c r="CM17">
+        <v>1</v>
+      </c>
+      <c r="CN17">
+        <v>1</v>
+      </c>
+      <c r="CO17">
+        <v>1</v>
+      </c>
+      <c r="CP17">
+        <v>1</v>
+      </c>
+      <c r="CQ17" s="3"/>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1944,8 +2355,38 @@
       <c r="BI18" s="3"/>
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
+      <c r="BQ18" s="3"/>
+      <c r="BR18" s="3"/>
+      <c r="BS18" s="3"/>
+      <c r="BT18" s="3"/>
+      <c r="BU18" s="3"/>
+      <c r="BV18" s="3"/>
+      <c r="BW18" s="3"/>
+      <c r="BX18" s="3"/>
+      <c r="BY18" s="3"/>
+      <c r="BZ18" s="3"/>
+      <c r="CA18" s="3"/>
+      <c r="CB18" s="3"/>
+      <c r="CC18" s="3"/>
+      <c r="CD18" s="3"/>
+      <c r="CE18" s="3"/>
+      <c r="CF18" s="3"/>
+      <c r="CG18" s="3"/>
+      <c r="CH18" s="3"/>
+      <c r="CI18" s="3"/>
+      <c r="CJ18" s="3"/>
+      <c r="CK18" s="3"/>
+      <c r="CL18" s="3"/>
+      <c r="CM18" s="3"/>
+      <c r="CN18" s="3"/>
+      <c r="CO18" s="3"/>
+      <c r="CP18" s="3"/>
+      <c r="CQ18" s="3"/>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:95" x14ac:dyDescent="0.2">
       <c r="AV19"/>
       <c r="AW19"/>
       <c r="AX19"/>
@@ -1955,8 +2396,17 @@
       <c r="BB19"/>
       <c r="BC19"/>
       <c r="BD19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
+      <c r="CD19"/>
+      <c r="CE19"/>
+      <c r="CF19"/>
+      <c r="CG19"/>
+      <c r="CH19"/>
+      <c r="CI19"/>
+      <c r="CJ19"/>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2129,7 +2579,7 @@
       </c>
       <c r="BA20" t="str">
         <f>CONCATENATE("0x", DEC2HEX((BA2*16)+BB2,2))</f>
-        <v>0x50</v>
+        <v>0x00</v>
       </c>
       <c r="BB20" t="s">
         <v>0</v>
@@ -2165,8 +2615,112 @@
       <c r="BK20" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="BN20">
+        <v>1</v>
+      </c>
+      <c r="BO20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((BO2*16)+BP2,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((BQ2*16)+BR2,2))</f>
+        <v>0x06</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((BS2*16)+BT2,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((BU2*16)+BV2,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((BW2*16)+BX2,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((BY2*16)+BZ2,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((CA2*16)+CB2,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((CC2*16)+CD2,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((CE2*16)+CF2,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((CG2*16)+CH2,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((CI2*16)+CJ2,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((CK2*16)+CL2,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((CM2*16)+CN2,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="str">
+        <f>CONCATENATE("0x", DEC2HEX((CO2*16)+CP2,2))</f>
+        <v>0x03</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ20" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2276,21 +2830,21 @@
       </c>
       <c r="AI21" t="str">
         <f t="shared" ref="AI21:AI35" si="14">CONCATENATE("0x", DEC2HEX((AI3*16)+AJ3,2))</f>
-        <v>0x00</v>
+        <v>0x11</v>
       </c>
       <c r="AJ21" t="s">
         <v>0</v>
       </c>
       <c r="AK21" t="str">
         <f t="shared" ref="AK21:AK35" si="15">CONCATENATE("0x", DEC2HEX((AK3*16)+AL3,2))</f>
-        <v>0x00</v>
+        <v>0x31</v>
       </c>
       <c r="AL21" t="s">
         <v>0</v>
       </c>
       <c r="AM21" t="str">
         <f t="shared" ref="AM21:AM35" si="16">CONCATENATE("0x", DEC2HEX((AM3*16)+AN3,2))</f>
-        <v>0x60</v>
+        <v>0x11</v>
       </c>
       <c r="AN21" t="s">
         <v>0</v>
@@ -2339,7 +2893,7 @@
       </c>
       <c r="BA21" t="str">
         <f t="shared" ref="BA21:BA35" si="23">CONCATENATE("0x", DEC2HEX((BA3*16)+BB3,2))</f>
-        <v>0x50</v>
+        <v>0x00</v>
       </c>
       <c r="BB21" t="s">
         <v>0</v>
@@ -2375,8 +2929,112 @@
       <c r="BK21" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BN21">
+        <v>2</v>
+      </c>
+      <c r="BO21" t="str">
+        <f t="shared" ref="BO21:BO35" si="28">CONCATENATE("0x", DEC2HEX((BO3*16)+BP3,2))</f>
+        <v>0x32</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="str">
+        <f t="shared" ref="BQ21:BQ35" si="29">CONCATENATE("0x", DEC2HEX((BQ3*16)+BR3,2))</f>
+        <v>0x21</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS21" t="str">
+        <f t="shared" ref="BS21:BS35" si="30">CONCATENATE("0x", DEC2HEX((BS3*16)+BT3,2))</f>
+        <v>0x22</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="str">
+        <f t="shared" ref="BU21:BU35" si="31">CONCATENATE("0x", DEC2HEX((BU3*16)+BV3,2))</f>
+        <v>0x30</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="str">
+        <f t="shared" ref="BW21:BW35" si="32">CONCATENATE("0x", DEC2HEX((BW3*16)+BX3,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="str">
+        <f t="shared" ref="BY21:BY35" si="33">CONCATENATE("0x", DEC2HEX((BY3*16)+BZ3,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="str">
+        <f t="shared" ref="CA21:CA35" si="34">CONCATENATE("0x", DEC2HEX((CA3*16)+CB3,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="str">
+        <f t="shared" ref="CC21:CC35" si="35">CONCATENATE("0x", DEC2HEX((CC3*16)+CD3,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="str">
+        <f t="shared" ref="CE21:CE35" si="36">CONCATENATE("0x", DEC2HEX((CE3*16)+CF3,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="str">
+        <f t="shared" ref="CG21:CG35" si="37">CONCATENATE("0x", DEC2HEX((CG3*16)+CH3,2))</f>
+        <v>0x60</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="str">
+        <f t="shared" ref="CI21:CI35" si="38">CONCATENATE("0x", DEC2HEX((CI3*16)+CJ3,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK21" t="str">
+        <f t="shared" ref="CK21:CK35" si="39">CONCATENATE("0x", DEC2HEX((CK3*16)+CL3,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="str">
+        <f t="shared" ref="CM21:CM35" si="40">CONCATENATE("0x", DEC2HEX((CM3*16)+CN3,2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="str">
+        <f t="shared" ref="CO21:CO35" si="41">CONCATENATE("0x", DEC2HEX((CO3*16)+CP3,2))</f>
+        <v>0x03</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2486,56 +3144,56 @@
       </c>
       <c r="AI22" t="str">
         <f t="shared" si="14"/>
-        <v>0x11</v>
+        <v>0x10</v>
       </c>
       <c r="AJ22" t="s">
         <v>0</v>
       </c>
       <c r="AK22" t="str">
         <f t="shared" si="15"/>
-        <v>0x11</v>
+        <v>0x30</v>
       </c>
       <c r="AL22" t="s">
         <v>0</v>
       </c>
       <c r="AM22" t="str">
         <f t="shared" si="16"/>
-        <v>0x11</v>
+        <v>0x01</v>
       </c>
       <c r="AN22" t="s">
         <v>0</v>
       </c>
       <c r="AO22" t="str">
         <f t="shared" si="17"/>
-        <v>0x13</v>
+        <v>0x00</v>
       </c>
       <c r="AP22" t="s">
         <v>0</v>
       </c>
       <c r="AQ22" t="str">
         <f t="shared" si="18"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AR22" t="s">
         <v>0</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="19"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AT22" t="s">
         <v>0</v>
       </c>
       <c r="AU22" t="str">
         <f t="shared" si="20"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AV22" t="s">
         <v>0</v>
       </c>
       <c r="AW22" t="str">
         <f t="shared" si="21"/>
-        <v>0x10</v>
+        <v>0x00</v>
       </c>
       <c r="AX22" t="s">
         <v>0</v>
@@ -2549,7 +3207,7 @@
       </c>
       <c r="BA22" t="str">
         <f t="shared" si="23"/>
-        <v>0x50</v>
+        <v>0x00</v>
       </c>
       <c r="BB22" t="s">
         <v>0</v>
@@ -2585,8 +3243,112 @@
       <c r="BK22" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BN22">
+        <v>3</v>
+      </c>
+      <c r="BO22" t="str">
+        <f t="shared" si="28"/>
+        <v>0x30</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="str">
+        <f t="shared" si="29"/>
+        <v>0x00</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS22" t="str">
+        <f t="shared" si="30"/>
+        <v>0x00</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="str">
+        <f t="shared" si="31"/>
+        <v>0x30</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="str">
+        <f t="shared" si="32"/>
+        <v>0x00</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="str">
+        <f t="shared" si="33"/>
+        <v>0x03</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="str">
+        <f t="shared" si="34"/>
+        <v>0x11</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="str">
+        <f t="shared" si="35"/>
+        <v>0x11</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE22" t="str">
+        <f t="shared" si="36"/>
+        <v>0x11</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="str">
+        <f t="shared" si="37"/>
+        <v>0x11</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="str">
+        <f t="shared" si="38"/>
+        <v>0x13</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="str">
+        <f t="shared" si="39"/>
+        <v>0x06</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="str">
+        <f t="shared" si="40"/>
+        <v>0x00</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="str">
+        <f t="shared" si="41"/>
+        <v>0x03</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ22" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2696,70 +3458,70 @@
       </c>
       <c r="AI23" t="str">
         <f t="shared" si="14"/>
-        <v>0x00</v>
+        <v>0x10</v>
       </c>
       <c r="AJ23" t="s">
         <v>0</v>
       </c>
       <c r="AK23" t="str">
         <f t="shared" si="15"/>
-        <v>0x00</v>
+        <v>0x30</v>
       </c>
       <c r="AL23" t="s">
         <v>0</v>
       </c>
       <c r="AM23" t="str">
         <f t="shared" si="16"/>
-        <v>0x00</v>
+        <v>0x61</v>
       </c>
       <c r="AN23" t="s">
         <v>0</v>
       </c>
       <c r="AO23" t="str">
         <f t="shared" si="17"/>
-        <v>0x03</v>
+        <v>0x00</v>
       </c>
       <c r="AP23" t="s">
         <v>0</v>
       </c>
       <c r="AQ23" t="str">
         <f t="shared" si="18"/>
-        <v>0x44</v>
+        <v>0x00</v>
       </c>
       <c r="AR23" t="s">
         <v>0</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="19"/>
-        <v>0x44</v>
+        <v>0x00</v>
       </c>
       <c r="AT23" t="s">
         <v>0</v>
       </c>
       <c r="AU23" t="str">
         <f t="shared" si="20"/>
-        <v>0x44</v>
+        <v>0x00</v>
       </c>
       <c r="AV23" t="s">
         <v>0</v>
       </c>
       <c r="AW23" t="str">
         <f t="shared" si="21"/>
-        <v>0x44</v>
+        <v>0x00</v>
       </c>
       <c r="AX23" t="s">
         <v>0</v>
       </c>
       <c r="AY23" t="str">
         <f t="shared" si="22"/>
-        <v>0x44</v>
+        <v>0x00</v>
       </c>
       <c r="AZ23" t="s">
         <v>0</v>
       </c>
       <c r="BA23" t="str">
         <f t="shared" si="23"/>
-        <v>0x50</v>
+        <v>0x00</v>
       </c>
       <c r="BB23" t="s">
         <v>0</v>
@@ -2773,7 +3535,7 @@
       </c>
       <c r="BE23" t="str">
         <f t="shared" si="25"/>
-        <v>0x06</v>
+        <v>0x00</v>
       </c>
       <c r="BF23" t="s">
         <v>0</v>
@@ -2795,8 +3557,112 @@
       <c r="BK23" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="BN23">
+        <v>4</v>
+      </c>
+      <c r="BO23" t="str">
+        <f t="shared" si="28"/>
+        <v>0x30</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="str">
+        <f t="shared" si="29"/>
+        <v>0x60</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="str">
+        <f t="shared" si="30"/>
+        <v>0x00</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="str">
+        <f t="shared" si="31"/>
+        <v>0x30</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="str">
+        <f t="shared" si="32"/>
+        <v>0x00</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="str">
+        <f t="shared" si="33"/>
+        <v>0x03</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="str">
+        <f t="shared" si="34"/>
+        <v>0x00</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="str">
+        <f t="shared" si="35"/>
+        <v>0x00</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE23" t="str">
+        <f t="shared" si="36"/>
+        <v>0x00</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="str">
+        <f t="shared" si="37"/>
+        <v>0x00</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="str">
+        <f t="shared" si="38"/>
+        <v>0x03</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK23" t="str">
+        <f t="shared" si="39"/>
+        <v>0x11</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="str">
+        <f t="shared" si="40"/>
+        <v>0x11</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="str">
+        <f t="shared" si="41"/>
+        <v>0x53</v>
+      </c>
+      <c r="CP23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ23" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2906,28 +3772,28 @@
       </c>
       <c r="AI24" t="str">
         <f t="shared" si="14"/>
-        <v>0x00</v>
+        <v>0x11</v>
       </c>
       <c r="AJ24" t="s">
         <v>0</v>
       </c>
       <c r="AK24" t="str">
         <f t="shared" si="15"/>
-        <v>0x00</v>
+        <v>0x11</v>
       </c>
       <c r="AL24" t="s">
         <v>0</v>
       </c>
       <c r="AM24" t="str">
         <f t="shared" si="16"/>
-        <v>0x00</v>
+        <v>0x11</v>
       </c>
       <c r="AN24" t="s">
         <v>0</v>
       </c>
       <c r="AO24" t="str">
         <f t="shared" si="17"/>
-        <v>0x03</v>
+        <v>0x00</v>
       </c>
       <c r="AP24" t="s">
         <v>0</v>
@@ -2948,14 +3814,14 @@
       </c>
       <c r="AU24" t="str">
         <f t="shared" si="20"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AV24" t="s">
         <v>0</v>
       </c>
       <c r="AW24" t="str">
         <f t="shared" si="21"/>
-        <v>0x30</v>
+        <v>0x00</v>
       </c>
       <c r="AX24" t="s">
         <v>0</v>
@@ -2969,35 +3835,35 @@
       </c>
       <c r="BA24" t="str">
         <f t="shared" si="23"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BB24" t="s">
         <v>0</v>
       </c>
       <c r="BC24" t="str">
         <f t="shared" si="24"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BD24" t="s">
         <v>0</v>
       </c>
       <c r="BE24" t="str">
         <f t="shared" si="25"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BF24" t="s">
         <v>0</v>
       </c>
       <c r="BG24" t="str">
         <f t="shared" si="26"/>
-        <v>0x13</v>
+        <v>0x00</v>
       </c>
       <c r="BH24" t="s">
         <v>0</v>
       </c>
       <c r="BI24" t="str">
         <f t="shared" si="27"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BJ24" t="s">
         <v>0</v>
@@ -3005,8 +3871,112 @@
       <c r="BK24" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="BN24">
+        <v>5</v>
+      </c>
+      <c r="BO24" t="str">
+        <f t="shared" si="28"/>
+        <v>0x31</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="str">
+        <f t="shared" si="29"/>
+        <v>0x21</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="str">
+        <f t="shared" si="30"/>
+        <v>0x21</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="str">
+        <f t="shared" si="31"/>
+        <v>0x30</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="str">
+        <f t="shared" si="32"/>
+        <v>0x00</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="str">
+        <f t="shared" si="33"/>
+        <v>0x03</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="str">
+        <f t="shared" si="34"/>
+        <v>0x00</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="str">
+        <f t="shared" si="35"/>
+        <v>0x00</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE24" t="str">
+        <f t="shared" si="36"/>
+        <v>0x00</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="str">
+        <f t="shared" si="37"/>
+        <v>0x00</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="str">
+        <f t="shared" si="38"/>
+        <v>0x03</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="str">
+        <f t="shared" si="39"/>
+        <v>0x00</v>
+      </c>
+      <c r="CL24" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="str">
+        <f t="shared" si="40"/>
+        <v>0x00</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="str">
+        <f t="shared" si="41"/>
+        <v>0x00</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ24" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3137,7 +4107,7 @@
       </c>
       <c r="AO25" t="str">
         <f t="shared" si="17"/>
-        <v>0x03</v>
+        <v>0x00</v>
       </c>
       <c r="AP25" t="s">
         <v>0</v>
@@ -3158,14 +4128,14 @@
       </c>
       <c r="AU25" t="str">
         <f t="shared" si="20"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AV25" t="s">
         <v>0</v>
       </c>
       <c r="AW25" t="str">
         <f t="shared" si="21"/>
-        <v>0x30</v>
+        <v>0x00</v>
       </c>
       <c r="AX25" t="s">
         <v>0</v>
@@ -3200,7 +4170,7 @@
       </c>
       <c r="BG25" t="str">
         <f t="shared" si="26"/>
-        <v>0x03</v>
+        <v>0x00</v>
       </c>
       <c r="BH25" t="s">
         <v>0</v>
@@ -3215,8 +4185,112 @@
       <c r="BK25" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="BN25">
+        <v>6</v>
+      </c>
+      <c r="BO25" t="str">
+        <f t="shared" si="28"/>
+        <v>0x30</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="str">
+        <f t="shared" si="29"/>
+        <v>0x00</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS25" t="str">
+        <f t="shared" si="30"/>
+        <v>0x00</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="str">
+        <f t="shared" si="31"/>
+        <v>0x34</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="str">
+        <f t="shared" si="32"/>
+        <v>0x44</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="str">
+        <f t="shared" si="33"/>
+        <v>0x43</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="str">
+        <f t="shared" si="34"/>
+        <v>0x44</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="str">
+        <f t="shared" si="35"/>
+        <v>0x44</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE25" t="str">
+        <f t="shared" si="36"/>
+        <v>0x44</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="str">
+        <f t="shared" si="37"/>
+        <v>0x00</v>
+      </c>
+      <c r="CH25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="str">
+        <f t="shared" si="38"/>
+        <v>0x03</v>
+      </c>
+      <c r="CJ25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK25" t="str">
+        <f t="shared" si="39"/>
+        <v>0x00</v>
+      </c>
+      <c r="CL25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM25" t="str">
+        <f t="shared" si="40"/>
+        <v>0x00</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="str">
+        <f t="shared" si="41"/>
+        <v>0x00</v>
+      </c>
+      <c r="CP25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ25" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -3347,7 +4421,7 @@
       </c>
       <c r="AO26" t="str">
         <f t="shared" si="17"/>
-        <v>0x03</v>
+        <v>0x00</v>
       </c>
       <c r="AP26" t="s">
         <v>0</v>
@@ -3368,14 +4442,14 @@
       </c>
       <c r="AU26" t="str">
         <f t="shared" si="20"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AV26" t="s">
         <v>0</v>
       </c>
       <c r="AW26" t="str">
         <f t="shared" si="21"/>
-        <v>0x30</v>
+        <v>0x00</v>
       </c>
       <c r="AX26" t="s">
         <v>0</v>
@@ -3403,14 +4477,14 @@
       </c>
       <c r="BE26" t="str">
         <f t="shared" si="25"/>
-        <v>0x60</v>
+        <v>0x00</v>
       </c>
       <c r="BF26" t="s">
         <v>0</v>
       </c>
       <c r="BG26" t="str">
         <f t="shared" si="26"/>
-        <v>0x03</v>
+        <v>0x00</v>
       </c>
       <c r="BH26" t="s">
         <v>0</v>
@@ -3425,8 +4499,112 @@
       <c r="BK26" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BN26">
+        <v>7</v>
+      </c>
+      <c r="BO26" t="str">
+        <f t="shared" si="28"/>
+        <v>0x30</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="str">
+        <f t="shared" si="29"/>
+        <v>0x00</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="str">
+        <f t="shared" si="30"/>
+        <v>0x00</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="str">
+        <f t="shared" si="31"/>
+        <v>0x30</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="str">
+        <f t="shared" si="32"/>
+        <v>0x00</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="str">
+        <f t="shared" si="33"/>
+        <v>0x03</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="str">
+        <f t="shared" si="34"/>
+        <v>0x00</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC26" t="str">
+        <f t="shared" si="35"/>
+        <v>0x00</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE26" t="str">
+        <f t="shared" si="36"/>
+        <v>0x03</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="str">
+        <f t="shared" si="37"/>
+        <v>0x11</v>
+      </c>
+      <c r="CH26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI26" t="str">
+        <f t="shared" si="38"/>
+        <v>0x12</v>
+      </c>
+      <c r="CJ26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK26" t="str">
+        <f t="shared" si="39"/>
+        <v>0x22</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM26" t="str">
+        <f t="shared" si="40"/>
+        <v>0x22</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO26" t="str">
+        <f t="shared" si="41"/>
+        <v>0x23</v>
+      </c>
+      <c r="CP26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ26" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
@@ -3536,28 +4714,28 @@
       </c>
       <c r="AI27" t="str">
         <f t="shared" si="14"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AJ27" t="s">
         <v>0</v>
       </c>
       <c r="AK27" t="str">
         <f t="shared" si="15"/>
-        <v>0x31</v>
+        <v>0x00</v>
       </c>
       <c r="AL27" t="s">
         <v>0</v>
       </c>
       <c r="AM27" t="str">
         <f t="shared" si="16"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AN27" t="s">
         <v>0</v>
       </c>
       <c r="AO27" t="str">
         <f t="shared" si="17"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AP27" t="s">
         <v>0</v>
@@ -3578,56 +4756,56 @@
       </c>
       <c r="AU27" t="str">
         <f t="shared" si="20"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AV27" t="s">
         <v>0</v>
       </c>
       <c r="AW27" t="str">
         <f t="shared" si="21"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AX27" t="s">
         <v>0</v>
       </c>
       <c r="AY27" t="str">
         <f t="shared" si="22"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AZ27" t="s">
         <v>0</v>
       </c>
       <c r="BA27" t="str">
         <f t="shared" si="23"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BB27" t="s">
         <v>0</v>
       </c>
       <c r="BC27" t="str">
         <f t="shared" si="24"/>
-        <v>0x31</v>
+        <v>0x00</v>
       </c>
       <c r="BD27" t="s">
         <v>0</v>
       </c>
       <c r="BE27" t="str">
         <f t="shared" si="25"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BF27" t="s">
         <v>0</v>
       </c>
       <c r="BG27" t="str">
         <f t="shared" si="26"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BH27" t="s">
         <v>0</v>
       </c>
       <c r="BI27" t="str">
         <f t="shared" si="27"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BJ27" t="s">
         <v>0</v>
@@ -3635,8 +4813,112 @@
       <c r="BK27" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="BN27">
+        <v>8</v>
+      </c>
+      <c r="BO27" t="str">
+        <f t="shared" si="28"/>
+        <v>0x30</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ27" t="str">
+        <f t="shared" si="29"/>
+        <v>0x00</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS27" t="str">
+        <f t="shared" si="30"/>
+        <v>0x00</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="str">
+        <f t="shared" si="31"/>
+        <v>0x30</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW27" t="str">
+        <f t="shared" si="32"/>
+        <v>0x00</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="str">
+        <f t="shared" si="33"/>
+        <v>0x03</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="str">
+        <f t="shared" si="34"/>
+        <v>0x00</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC27" t="str">
+        <f t="shared" si="35"/>
+        <v>0x60</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE27" t="str">
+        <f t="shared" si="36"/>
+        <v>0x03</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="str">
+        <f t="shared" si="37"/>
+        <v>0x00</v>
+      </c>
+      <c r="CH27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI27" t="str">
+        <f t="shared" si="38"/>
+        <v>0x00</v>
+      </c>
+      <c r="CJ27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK27" t="str">
+        <f t="shared" si="39"/>
+        <v>0x00</v>
+      </c>
+      <c r="CL27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM27" t="str">
+        <f t="shared" si="40"/>
+        <v>0x00</v>
+      </c>
+      <c r="CN27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO27" t="str">
+        <f t="shared" si="41"/>
+        <v>0x03</v>
+      </c>
+      <c r="CP27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ27" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
@@ -3753,7 +5035,7 @@
       </c>
       <c r="AK28" t="str">
         <f t="shared" si="15"/>
-        <v>0x30</v>
+        <v>0x00</v>
       </c>
       <c r="AL28" t="s">
         <v>0</v>
@@ -3816,7 +5098,7 @@
       </c>
       <c r="BC28" t="str">
         <f t="shared" si="24"/>
-        <v>0x30</v>
+        <v>0x00</v>
       </c>
       <c r="BD28" t="s">
         <v>0</v>
@@ -3845,8 +5127,112 @@
       <c r="BK28" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="BN28">
+        <v>9</v>
+      </c>
+      <c r="BO28" t="str">
+        <f t="shared" si="28"/>
+        <v>0x30</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ28" t="str">
+        <f t="shared" si="29"/>
+        <v>0x00</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS28" t="str">
+        <f t="shared" si="30"/>
+        <v>0x00</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="str">
+        <f t="shared" si="31"/>
+        <v>0x30</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW28" t="str">
+        <f t="shared" si="32"/>
+        <v>0x60</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY28" t="str">
+        <f t="shared" si="33"/>
+        <v>0x03</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA28" t="str">
+        <f t="shared" si="34"/>
+        <v>0x11</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC28" t="str">
+        <f t="shared" si="35"/>
+        <v>0x11</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE28" t="str">
+        <f t="shared" si="36"/>
+        <v>0x13</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG28" t="str">
+        <f t="shared" si="37"/>
+        <v>0x00</v>
+      </c>
+      <c r="CH28" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI28" t="str">
+        <f t="shared" si="38"/>
+        <v>0x00</v>
+      </c>
+      <c r="CJ28" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK28" t="str">
+        <f t="shared" si="39"/>
+        <v>0x00</v>
+      </c>
+      <c r="CL28" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM28" t="str">
+        <f t="shared" si="40"/>
+        <v>0x00</v>
+      </c>
+      <c r="CN28" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO28" t="str">
+        <f t="shared" si="41"/>
+        <v>0x03</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ28" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -3963,7 +5349,7 @@
       </c>
       <c r="AK29" t="str">
         <f t="shared" si="15"/>
-        <v>0x30</v>
+        <v>0x00</v>
       </c>
       <c r="AL29" t="s">
         <v>0</v>
@@ -4026,7 +5412,7 @@
       </c>
       <c r="BC29" t="str">
         <f t="shared" si="24"/>
-        <v>0x30</v>
+        <v>0x00</v>
       </c>
       <c r="BD29" t="s">
         <v>0</v>
@@ -4055,8 +5441,112 @@
       <c r="BK29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="BN29">
+        <v>10</v>
+      </c>
+      <c r="BO29" t="str">
+        <f t="shared" si="28"/>
+        <v>0x21</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ29" t="str">
+        <f t="shared" si="29"/>
+        <v>0x11</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS29" t="str">
+        <f t="shared" si="30"/>
+        <v>0x21</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="str">
+        <f t="shared" si="31"/>
+        <v>0x12</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW29" t="str">
+        <f t="shared" si="32"/>
+        <v>0x11</v>
+      </c>
+      <c r="BX29" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY29" t="str">
+        <f t="shared" si="33"/>
+        <v>0x23</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA29" t="str">
+        <f t="shared" si="34"/>
+        <v>0x00</v>
+      </c>
+      <c r="CB29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC29" t="str">
+        <f t="shared" si="35"/>
+        <v>0x00</v>
+      </c>
+      <c r="CD29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE29" t="str">
+        <f t="shared" si="36"/>
+        <v>0x00</v>
+      </c>
+      <c r="CF29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG29" t="str">
+        <f t="shared" si="37"/>
+        <v>0x00</v>
+      </c>
+      <c r="CH29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI29" t="str">
+        <f t="shared" si="38"/>
+        <v>0x03</v>
+      </c>
+      <c r="CJ29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK29" t="str">
+        <f t="shared" si="39"/>
+        <v>0x11</v>
+      </c>
+      <c r="CL29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM29" t="str">
+        <f t="shared" si="40"/>
+        <v>0x13</v>
+      </c>
+      <c r="CN29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO29" t="str">
+        <f t="shared" si="41"/>
+        <v>0x11</v>
+      </c>
+      <c r="CP29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11</v>
       </c>
@@ -4166,77 +5656,77 @@
       </c>
       <c r="AI30" t="str">
         <f t="shared" si="14"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AJ30" t="s">
         <v>0</v>
       </c>
       <c r="AK30" t="str">
         <f t="shared" si="15"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AL30" t="s">
         <v>0</v>
       </c>
       <c r="AM30" t="str">
         <f t="shared" si="16"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AN30" t="s">
         <v>0</v>
       </c>
       <c r="AO30" t="str">
         <f t="shared" si="17"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AP30" t="s">
         <v>0</v>
       </c>
       <c r="AQ30" t="str">
         <f t="shared" si="18"/>
-        <v>0x13</v>
+        <v>0x00</v>
       </c>
       <c r="AR30" t="s">
         <v>0</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="19"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AT30" t="s">
         <v>0</v>
       </c>
       <c r="AU30" t="str">
         <f t="shared" si="20"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AV30" t="s">
         <v>0</v>
       </c>
       <c r="AW30" t="str">
         <f t="shared" si="21"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AX30" t="s">
         <v>0</v>
       </c>
       <c r="AY30" t="str">
         <f t="shared" si="22"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AZ30" t="s">
         <v>0</v>
       </c>
       <c r="BA30" t="str">
         <f t="shared" si="23"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BB30" t="s">
         <v>0</v>
       </c>
       <c r="BC30" t="str">
         <f t="shared" si="24"/>
-        <v>0x30</v>
+        <v>0x00</v>
       </c>
       <c r="BD30" t="s">
         <v>0</v>
@@ -4265,8 +5755,112 @@
       <c r="BK30" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="BN30">
+        <v>11</v>
+      </c>
+      <c r="BO30" t="str">
+        <f t="shared" si="28"/>
+        <v>0x21</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ30" t="str">
+        <f t="shared" si="29"/>
+        <v>0x11</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS30" t="str">
+        <f t="shared" si="30"/>
+        <v>0x20</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="str">
+        <f t="shared" si="31"/>
+        <v>0x00</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW30" t="str">
+        <f t="shared" si="32"/>
+        <v>0x00</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY30" t="str">
+        <f t="shared" si="33"/>
+        <v>0x03</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA30" t="str">
+        <f t="shared" si="34"/>
+        <v>0x00</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC30" t="str">
+        <f t="shared" si="35"/>
+        <v>0x00</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE30" t="str">
+        <f t="shared" si="36"/>
+        <v>0x00</v>
+      </c>
+      <c r="CF30" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG30" t="str">
+        <f t="shared" si="37"/>
+        <v>0x00</v>
+      </c>
+      <c r="CH30" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI30" t="str">
+        <f t="shared" si="38"/>
+        <v>0x03</v>
+      </c>
+      <c r="CJ30" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK30" t="str">
+        <f t="shared" si="39"/>
+        <v>0x00</v>
+      </c>
+      <c r="CL30" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM30" t="str">
+        <f t="shared" si="40"/>
+        <v>0x03</v>
+      </c>
+      <c r="CN30" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO30" t="str">
+        <f t="shared" si="41"/>
+        <v>0x00</v>
+      </c>
+      <c r="CP30" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ30" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -4404,7 +5998,7 @@
       </c>
       <c r="AQ31" t="str">
         <f t="shared" si="18"/>
-        <v>0x03</v>
+        <v>0x00</v>
       </c>
       <c r="AR31" t="s">
         <v>0</v>
@@ -4446,7 +6040,7 @@
       </c>
       <c r="BC31" t="str">
         <f t="shared" si="24"/>
-        <v>0x30</v>
+        <v>0x00</v>
       </c>
       <c r="BD31" t="s">
         <v>0</v>
@@ -4475,8 +6069,112 @@
       <c r="BK31" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="BN31">
+        <v>12</v>
+      </c>
+      <c r="BO31" t="str">
+        <f t="shared" si="28"/>
+        <v>0x26</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ31" t="str">
+        <f t="shared" si="29"/>
+        <v>0x00</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS31" t="str">
+        <f t="shared" si="30"/>
+        <v>0x20</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="str">
+        <f t="shared" si="31"/>
+        <v>0x00</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW31" t="str">
+        <f t="shared" si="32"/>
+        <v>0x00</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY31" t="str">
+        <f t="shared" si="33"/>
+        <v>0x03</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA31" t="str">
+        <f t="shared" si="34"/>
+        <v>0x00</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC31" t="str">
+        <f t="shared" si="35"/>
+        <v>0x04</v>
+      </c>
+      <c r="CD31" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE31" t="str">
+        <f t="shared" si="36"/>
+        <v>0x44</v>
+      </c>
+      <c r="CF31" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG31" t="str">
+        <f t="shared" si="37"/>
+        <v>0x44</v>
+      </c>
+      <c r="CH31" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI31" t="str">
+        <f t="shared" si="38"/>
+        <v>0x44</v>
+      </c>
+      <c r="CJ31" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK31" t="str">
+        <f t="shared" si="39"/>
+        <v>0x00</v>
+      </c>
+      <c r="CL31" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM31" t="str">
+        <f t="shared" si="40"/>
+        <v>0x03</v>
+      </c>
+      <c r="CN31" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO31" t="str">
+        <f t="shared" si="41"/>
+        <v>0x06</v>
+      </c>
+      <c r="CP31" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>13</v>
       </c>
@@ -4607,56 +6305,56 @@
       </c>
       <c r="AO32" t="str">
         <f t="shared" si="17"/>
-        <v>0x06</v>
+        <v>0x00</v>
       </c>
       <c r="AP32" t="s">
         <v>0</v>
       </c>
       <c r="AQ32" t="str">
         <f t="shared" si="18"/>
-        <v>0x03</v>
+        <v>0x00</v>
       </c>
       <c r="AR32" t="s">
         <v>0</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="19"/>
-        <v>0x44</v>
+        <v>0x00</v>
       </c>
       <c r="AT32" t="s">
         <v>0</v>
       </c>
       <c r="AU32" t="str">
         <f t="shared" si="20"/>
-        <v>0x44</v>
+        <v>0x00</v>
       </c>
       <c r="AV32" t="s">
         <v>0</v>
       </c>
       <c r="AW32" t="str">
         <f t="shared" si="21"/>
-        <v>0x44</v>
+        <v>0x00</v>
       </c>
       <c r="AX32" t="s">
         <v>0</v>
       </c>
       <c r="AY32" t="str">
         <f t="shared" si="22"/>
-        <v>0x44</v>
+        <v>0x00</v>
       </c>
       <c r="AZ32" t="s">
         <v>0</v>
       </c>
       <c r="BA32" t="str">
         <f t="shared" si="23"/>
-        <v>0x44</v>
+        <v>0x00</v>
       </c>
       <c r="BB32" t="s">
         <v>0</v>
       </c>
       <c r="BC32" t="str">
         <f t="shared" si="24"/>
-        <v>0x30</v>
+        <v>0x00</v>
       </c>
       <c r="BD32" t="s">
         <v>0</v>
@@ -4670,7 +6368,7 @@
       </c>
       <c r="BG32" t="str">
         <f t="shared" si="26"/>
-        <v>0x60</v>
+        <v>0x00</v>
       </c>
       <c r="BH32" t="s">
         <v>0</v>
@@ -4685,8 +6383,112 @@
       <c r="BK32" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="BN32">
+        <v>13</v>
+      </c>
+      <c r="BO32" t="str">
+        <f t="shared" si="28"/>
+        <v>0x11</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ32" t="str">
+        <f t="shared" si="29"/>
+        <v>0x11</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS32" t="str">
+        <f t="shared" si="30"/>
+        <v>0x11</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="str">
+        <f t="shared" si="31"/>
+        <v>0x11</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW32" t="str">
+        <f t="shared" si="32"/>
+        <v>0x31</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY32" t="str">
+        <f t="shared" si="33"/>
+        <v>0x11</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA32" t="str">
+        <f t="shared" si="34"/>
+        <v>0x22</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC32" t="str">
+        <f t="shared" si="35"/>
+        <v>0x22</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE32" t="str">
+        <f t="shared" si="36"/>
+        <v>0x00</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG32" t="str">
+        <f t="shared" si="37"/>
+        <v>0x00</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI32" t="str">
+        <f t="shared" si="38"/>
+        <v>0x03</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK32" t="str">
+        <f t="shared" si="39"/>
+        <v>0x00</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM32" t="str">
+        <f t="shared" si="40"/>
+        <v>0x11</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO32" t="str">
+        <f t="shared" si="41"/>
+        <v>0x11</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ32" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>14</v>
       </c>
@@ -4810,28 +6612,28 @@
       </c>
       <c r="AM33" t="str">
         <f t="shared" si="16"/>
-        <v>0x31</v>
+        <v>0x00</v>
       </c>
       <c r="AN33" t="s">
         <v>0</v>
       </c>
       <c r="AO33" t="str">
         <f t="shared" si="17"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AP33" t="s">
         <v>0</v>
       </c>
       <c r="AQ33" t="str">
         <f t="shared" si="18"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AR33" t="s">
         <v>0</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="19"/>
-        <v>0x10</v>
+        <v>0x00</v>
       </c>
       <c r="AT33" t="s">
         <v>0</v>
@@ -4866,28 +6668,28 @@
       </c>
       <c r="BC33" t="str">
         <f t="shared" si="24"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BD33" t="s">
         <v>0</v>
       </c>
       <c r="BE33" t="str">
         <f t="shared" si="25"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BF33" t="s">
         <v>0</v>
       </c>
       <c r="BG33" t="str">
         <f t="shared" si="26"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BH33" t="s">
         <v>0</v>
       </c>
       <c r="BI33" t="str">
         <f t="shared" si="27"/>
-        <v>0x13</v>
+        <v>0x00</v>
       </c>
       <c r="BJ33" t="s">
         <v>0</v>
@@ -4895,8 +6697,112 @@
       <c r="BK33" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="BN33">
+        <v>14</v>
+      </c>
+      <c r="BO33" t="str">
+        <f t="shared" si="28"/>
+        <v>0x00</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ33" t="str">
+        <f t="shared" si="29"/>
+        <v>0x00</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS33" t="str">
+        <f t="shared" si="30"/>
+        <v>0x00</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="str">
+        <f t="shared" si="31"/>
+        <v>0x00</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW33" t="str">
+        <f t="shared" si="32"/>
+        <v>0x30</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY33" t="str">
+        <f t="shared" si="33"/>
+        <v>0x00</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA33" t="str">
+        <f t="shared" si="34"/>
+        <v>0x00</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC33" t="str">
+        <f t="shared" si="35"/>
+        <v>0x00</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE33" t="str">
+        <f t="shared" si="36"/>
+        <v>0x00</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG33" t="str">
+        <f t="shared" si="37"/>
+        <v>0x00</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI33" t="str">
+        <f t="shared" si="38"/>
+        <v>0x03</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK33" t="str">
+        <f t="shared" si="39"/>
+        <v>0x00</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM33" t="str">
+        <f t="shared" si="40"/>
+        <v>0x00</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO33" t="str">
+        <f t="shared" si="41"/>
+        <v>0x00</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ33" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>15</v>
       </c>
@@ -5020,7 +6926,7 @@
       </c>
       <c r="AM34" t="str">
         <f t="shared" si="16"/>
-        <v>0x30</v>
+        <v>0x00</v>
       </c>
       <c r="AN34" t="s">
         <v>0</v>
@@ -5062,7 +6968,7 @@
       </c>
       <c r="AY34" t="str">
         <f t="shared" si="22"/>
-        <v>0x06</v>
+        <v>0x00</v>
       </c>
       <c r="AZ34" t="s">
         <v>0</v>
@@ -5097,7 +7003,7 @@
       </c>
       <c r="BI34" t="str">
         <f t="shared" si="27"/>
-        <v>0x03</v>
+        <v>0x00</v>
       </c>
       <c r="BJ34" t="s">
         <v>0</v>
@@ -5105,8 +7011,112 @@
       <c r="BK34" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="BN34">
+        <v>15</v>
+      </c>
+      <c r="BO34" t="str">
+        <f t="shared" si="28"/>
+        <v>0x00</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ34" t="str">
+        <f t="shared" si="29"/>
+        <v>0x00</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS34" t="str">
+        <f t="shared" si="30"/>
+        <v>0x00</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="str">
+        <f t="shared" si="31"/>
+        <v>0x00</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW34" t="str">
+        <f t="shared" si="32"/>
+        <v>0x30</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY34" t="str">
+        <f t="shared" si="33"/>
+        <v>0x00</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA34" t="str">
+        <f t="shared" si="34"/>
+        <v>0x00</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC34" t="str">
+        <f t="shared" si="35"/>
+        <v>0x00</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE34" t="str">
+        <f t="shared" si="36"/>
+        <v>0x00</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG34" t="str">
+        <f t="shared" si="37"/>
+        <v>0x00</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI34" t="str">
+        <f t="shared" si="38"/>
+        <v>0x03</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK34" t="str">
+        <f t="shared" si="39"/>
+        <v>0x00</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM34" t="str">
+        <f t="shared" si="40"/>
+        <v>0x00</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO34" t="str">
+        <f t="shared" si="41"/>
+        <v>0x00</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ34" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>16</v>
       </c>
@@ -5216,103 +7226,207 @@
       </c>
       <c r="AI35" t="str">
         <f t="shared" si="14"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AJ35" t="s">
         <v>0</v>
       </c>
       <c r="AK35" t="str">
         <f t="shared" si="15"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AL35" t="s">
         <v>0</v>
       </c>
       <c r="AM35" t="str">
         <f t="shared" si="16"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AN35" t="s">
         <v>0</v>
       </c>
       <c r="AO35" t="str">
         <f t="shared" si="17"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AP35" t="s">
         <v>0</v>
       </c>
       <c r="AQ35" t="str">
         <f t="shared" si="18"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AR35" t="s">
         <v>0</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="19"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AT35" t="s">
         <v>0</v>
       </c>
       <c r="AU35" t="str">
         <f t="shared" si="20"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AV35" t="s">
         <v>0</v>
       </c>
       <c r="AW35" t="str">
         <f t="shared" si="21"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AX35" t="s">
         <v>0</v>
       </c>
       <c r="AY35" t="str">
         <f t="shared" si="22"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="AZ35" t="s">
         <v>0</v>
       </c>
       <c r="BA35" t="str">
         <f t="shared" si="23"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BB35" t="s">
         <v>0</v>
       </c>
       <c r="BC35" t="str">
         <f t="shared" si="24"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BD35" t="s">
         <v>0</v>
       </c>
       <c r="BE35" t="str">
         <f t="shared" si="25"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BF35" t="s">
         <v>0</v>
       </c>
       <c r="BG35" t="str">
         <f t="shared" si="26"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BH35" t="s">
         <v>0</v>
       </c>
       <c r="BI35" t="str">
         <f t="shared" si="27"/>
-        <v>0x11</v>
+        <v>0x00</v>
       </c>
       <c r="BJ35" t="s">
         <v>0</v>
       </c>
       <c r="BK35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BN35">
+        <v>16</v>
+      </c>
+      <c r="BO35" t="str">
+        <f t="shared" si="28"/>
+        <v>0x11</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ35" t="str">
+        <f t="shared" si="29"/>
+        <v>0x11</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS35" t="str">
+        <f t="shared" si="30"/>
+        <v>0x11</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="str">
+        <f t="shared" si="31"/>
+        <v>0x11</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW35" t="str">
+        <f t="shared" si="32"/>
+        <v>0x11</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY35" t="str">
+        <f t="shared" si="33"/>
+        <v>0x11</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA35" t="str">
+        <f t="shared" si="34"/>
+        <v>0x11</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC35" t="str">
+        <f t="shared" si="35"/>
+        <v>0x11</v>
+      </c>
+      <c r="CD35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE35" t="str">
+        <f t="shared" si="36"/>
+        <v>0x11</v>
+      </c>
+      <c r="CF35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG35" t="str">
+        <f t="shared" si="37"/>
+        <v>0x11</v>
+      </c>
+      <c r="CH35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI35" t="str">
+        <f t="shared" si="38"/>
+        <v>0x11</v>
+      </c>
+      <c r="CJ35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK35" t="str">
+        <f t="shared" si="39"/>
+        <v>0x11</v>
+      </c>
+      <c r="CL35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM35" t="str">
+        <f t="shared" si="40"/>
+        <v>0x11</v>
+      </c>
+      <c r="CN35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO35" t="str">
+        <f t="shared" si="41"/>
+        <v>0x11</v>
+      </c>
+      <c r="CP35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
